--- a/Testdata/TC_67.xlsx
+++ b/Testdata/TC_67.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>sjEAAB+LCAAAAAAAAAPtWltv48YV/iuEn5IHeUjJXsvGLAPd7AqRrIUld9cpioAixza7FKnyYltv+1Kk3TRPTYKmSZvuU4qim+ahBYpsm/6XoPKmT/0LPXMhObzIlrxOkABeGF7OuczlzJlzvjMe/MbFxFHOiB/Ynnt/TVtX1xTimp5luyf316LwuKLdW3tDx50LkzgPDN+YkBCEFdByg52LwL6/dhqG0x2Ezs/P189r655/gqqqqqFH/d7QPCUTo2K7QWi4JllLtKzrtdZ03LImfRIalhEaXPP+WnfYXW8R22wDrW+4xgnx15tRYLskCDpuaIc2CaimT4yQtNr9H/OF6dX1e+saRgV6KtmMbMfichlJThdyMCwZ2ROiV1WtXlHrlZo20rSdDXWnWlvXNrW3YsVEEPeMIBwS/8w2GWEYGpMpU1frNU3TNtRqDaNSIegrNYCOB451QM7sgFgt4jjBShZBYgMbZgirXs2YKkaSrujo5lPY843p6cgOHbLaNJrtkTJxxVzSTnS86/nEBPvdaEr75HzgC7OOpj3gjk5tP5y1jdnKfR0GxB9MqZFWU9Vx23PDhkP88HAKe00scAVg6KEfEYwWMFOlth2Y8G27EbH0Y8MJZKUMEz/0/MfB1DDJPpxjRPs4dx3PsMDhQjsIbTNIOyhw8APfm0KXMHrTc6xd6FZMsYSRdN11wcZ03KbnPc73nmVitq1sg2FTJ0YYixfoeHjqnQ9cZzaMxoHp22NitZuxdCkP0xMptFtREHoTmEVKwpwmUfp9NIN/cAjzHNwmpj0xnAcOGDLQ4fhmCbgRhd6xHbY8J5q4iUVzVPwQFjUiF8kikzYewAa71O6e23VzvZTyshoH3nnsO0U6s4NEbgRm7GdFRl64DbR4B4sctil0lbu2AzlC3g6JmnWM4SkhYalXcA6m4XCXZh29OaNjYpRSMDgneDhQdW17e6uiavAzUtUd9gMjJ2zccS32ATnmXkWr0ridysVMvB9NBmM4xWdsTboGvBwJwyqcpmO4j4H60A5P9xvx7Es4mK95oXyRh+G8Th1jxsiJXWQa7rqmE1mEh4Gue8ycks6Nb+NCNi6QenCwdWy4s9FsCtE4sHdC+Li/Bvl5Jwh9QABruulFbujPaLzASIhepxNEY5cNYDhL6xz75OcRAI/ZbuSaLc9afjSLW+fQtcPlZ+hFPg+Cy6sw69FwGAVtQgMLC/VL65urrCnwVxKfuGTiuba5vLXByHT21g0WEsSnStJAC3yrTY6NyAFoE0IGOkmTS46MG8HjvIxMwoe+EwcHnQLHAJCjaU3WTcitFB2tm96EEhAAtodDjGR5ChBM0nFPeoZ7EkEKTg5gnp6EJpo9Rr7hBnQ5ScbNRalyIRwfaI4EdH7KBxGzGD/lHnAxysnhEZlMPd9w+mAYe1fsj4ATkKn7RngqWhD1HWLGRkapaqKVnVk88evEWPzmy6AnQ8STHJEJ0bVwjCrF+JSI6TL74MBOy3Dssc/jT5zmyniwYyl4iiMVXd2KQCreBChUIDO9SWYUvaYNQWc+q8UM7sE05OjDg416dVO9V4esT9uYLXnPg/LInYCo0ibjcEdpexNCIdGO0mzuKBn21AvsEHaX20oE7hv3Iuvj3ThCsqn1wX8zhCwfUvOJDfG3IJcwUnm9D4Dt1JlJknzlPc8Ewcv3/z3/8pP5ky/nT5/975+/m3/8r/kvPoOPZhN+Cebz317+5Su+aq6ER8bYIWxio2a9rtY2wP8SEqY2RwxQWpEZMtrREcORSRuLeog1Wp1ua6/XZHEmIcbqPCYjWmrNvChtDvli2EBsp1HsIFxEH8VxS7QzXCnG67T0OSNZaZm/SJHb4uWLz16+eL5QWxgsBSuAUaoVdWMJLKPVKJZRS7EMLSl5xRAXrJu0YNVqknBOBh9A3Q0FQmKnrqXXNHVb3dpStSTGW4lflwnlWaKnkXGCcnqc1OL4InEBuR0zmf+P4LAkbH4ipIZw1b+/+81fP8hICesKSrYXmBzDAXQwFDdY1/sHI2U4ODxodZRRZ0j9JOVJcrzzK4TF6Mm5kp2meOoyLlVG5d1dqZgfcc/3omkhYqTUEsnS2FHk5jSZbYpTS3kl8mLXPvllmYJYSTuFd8kdgEzDGQ4nSXxxBD/66j//eGf+/NP50z9evvur+bP35+89y/QjRksKZHBdOCByM/FkiGIis+Qo+OGQ2fSx+raUSQSRFhcPPNsNA13TNllhIZoYdDXaHfsfdyeQ3VjPzGxAz1Hwj4ygcxGKw6rvY5QlwESnBiRWLy3BEgKPy6l5//v7P1x+/LfLD7/45p0/z5/+af7rD1+++PSbz5/xk3T5wReX730uInc+uLO50MKOAz6F3RSYCj1hCk3TytdPfqO4XqgAvFAiFmW+fvKR1BmdKAMiac8A35KJZKdQEJWVqZ4iTSWZQ0YvUeG5vkXTUi2REInJm9pmOshbFdoVYFCFMV7rjipRQBQPkNPrsJKscKq8rJ5Q4WnywZZa1aqCy2dDlzA2Asn0e443NhwlZrA6PCeS0bpaIZVl4+31Bs1GLxXhkxj4FpTtKr1MoB84ho80TXSDuBW7mkQBLmA8M3Lo1UlBrMhKepbCGRJ3EMcNi95I66rKivxszstI4Fbk+xztuOJaexhNAfjGl1WL+ewGT8K6+xyWyug3bXfbWT60JS4ktyybEhifRSjB4tGqG9DrDo5c96lp0ibwMrd+YA5xc83R05kNW4Jo4On4vueXRp+UE4v1ATRDREGpxRMZtqccYFvpXsWEOOJ9b4C28pNGq3XYP+w1Rp3XXv/p7eDuQqc/LBheapM7VP7doXIqtHGHyu9Q+R0q/+5RubYYlWtvG8QaG9XjrUp9u04qG5vVzcp4u75VGWukNiZq9Z66vVUG2KvfLl6PN6/kzn7hHJZOQzdyg6tcs2RnbztK3uq92dVB85pgdn3Nh67YvbtC7K4Qu+1CTCsWYvyvA7m/GUBgsnRAgsPOAUQkCg9k6CQhRPrnGCnDpW98EoSWh+wSNZlEGiAavh2eQg+2OZgSfr8PR7Iol6jS0ihVUsq0WPWUL0TFSfS4ArlpMYI4ykaZsINyETbfjg+9TEcSXEcS1kZlyBploDR6ZdiMFsLdxZx4pml8Li2vS8J3qdwikFsqfD3IzSNTRlket6JMbEdFXJqS0ELIiQq4EpVjwAXkgkri/qXEMq9KcnQpMR5AwkyIp2hUBFzodu43kQxL1FdCRssnSCQRUDFhZUkok2FQPpvIBCSFflQS6HM0lI3USEQl9EO+FhNjf5/vxdBNbsLQ7V14SUmmbR8fHwGSepS+zokJfMZpL7SBUWluRlLylnxDPOG5XWfJZfsyibtL1lUvWZcvJr+V+1eUPpFIgVCbOADcVn22Gmv3oZK6qS64xaqq3WDgWMLOq73ySMySdiC/LaY+9KpPi7kfNnwf4AV9h7jyW+D4kdCB4Z6sOBu+FKZIX9vA6HH2t/0gfETTqPjilKOEcsSh1yN9c5sDrEeccERhL/8QixS9o8w041Md8hfentOzJ/aKL3DU+OhnOwFbTqccSXVX8xRaUe6TC6jLpR4g645/Bgmev1JbpTfusFBCJPr0QWVgn5yGq05sawwRgIzVijkm1cqGpdYr24TUKpoGvw2zWlXVTfocU3QOQcUm5ysOguINS6sy/f9rQKJ6sjEAAA==</t>
+          <t>cjMAAB+LCAAAAAAAAAPtW1tv48YV/iuCn5IHeUjJF8mYZaCbXaGSZVhyd52XgCJHNmuKVHixrbcARZt20zw1CZo2bbp9aVF00zy0QJEt0v8SVN7tU/9Cz1xIDinKNr1O0aIOhCzn3GbmzJlzvpmdxW9dTu3SOfF8y3UeranrylqJOIZrWs7Jo7UwmJTVrbW3NNy5NIh9oHv6lAQgXAItx9+59K1Ha6dBMNtB6OLiYv2iuu56J6iiKCp60u8NjVMy1cuW4we6Y5C1WMu8WWtNwy1z2ieBbuqBzjUfrXWH3fUWsYw20Pq6o58Qb70Z+pZDfL/jBFZgEZ9qekQPSKvd/x6fmFZZ31pXMVqiJ5LN0LJNLpeS5HQhB92SkTUlWkWpKGWlVq5sjJTajrqxo9bWa8rW25FiLIh7uh8MiXduGYwwDPTpjKkrtcqGUlM31BpGuUJgK3GAhge2eUjOLZ+YLWLbfiGPILGADSOAWRdzpoKRpCsM3X0Ie54+Ox1ZgU2Kqu+6HjHAUXfqe59cDDzhv9GsB9zRqeUF87Y+L2zryCfeYEa9UUxVw23XCRo28YKjGSwqMWHNgaEFXkgwWsFMlNqWb8C35YTE1Ca67ctKKSZ+7Hpn/kw3yD5sWERtXDi2q5sQWYHlB5bhJwaWOPjAc2dgEnpvura5C2bFEHMYsemuAz6m/TZd9yxrPc3ELAhYOMCiTvUgEl+i4+GpezFw7PkwHPuGZ42J2W5G0rk8TLee0G6FfuBOYRQJCXOaROn30Rz+g92W5eA2Maypbh/Y4Ehfq4KhFAE3wsCdWEHLtcOpE3s0Q8WPYVIjchlPMm7jASywQ/3uOl0nYyWXl9Y4dC+i2FmmMz9I5IZvRHG2zMgKt4EWreAyhy0KneWuZUMxkJdDoqYDY3hKSJAbFZyDad7bpeVFa85pnxglFAzBCREOVMicylYZfhVlpCg77Ac9x2zcccxETq2Uq6okFzHxfjgdjGEXn7M5aSrwMiQMs7Cbtu6cAfWxFZzuN6LR53Awn/NK+WUehv06s/U5I8d+kWm46xh2aBKeBrrOhAUlHRtfxpVsvETqwcbWsO7MR/MZpF3f2gng49EaFOIdP/Cg1K9phhs6gTen+QIjIXqTjh+OHdaBbt9aZ+KRd0NAGPPd0DFarnn73kzunSPHCm4/Qjf0eBK8vQrzHk2Hod8mNLGwVH9rfaPInHyvkPjUIVPXsYzbexucTEdv3mEifrSrJA20IrbaZKKHNmCYACrQSVJcMmTc8M+yMjIJH3l2lBw0ihB9gIiGOV03oLZSGLRuuFNKQIDMHg8xkuUpQDBIxznp6c5JCCU43oBZepyaaPUYebrj0+nEFTeTpfKFcLShORLQ+C4fhMxjfJe7wMUoI4dHZDpzPd3ug2OsXbE+Ak5Ape7rwaloQda3iRE5GSWqsVZ6ZNHAbxJj+ZtPg+4MkU8yRCZE58LBqJTjEyKm0+xDANst3bbGHs8/UZnL48GKJeApylR0dgWBVLQIcCKByvRdMqcwNWkIOotZNWLwCKYpRxsebtQqm8oWQG/WxmzKey6cg5wpiJbaZBzslNrulFBItFNqNndKKfbM9a0AVpf7SiTuO1uR9fFulCHZ0PoQvylCmg+l+cSC/LskFzMSea0PgO3UnkuSfOY91wDBq4/+vvjqs8V7Xy2ePvvX336x+O0PFj/6IXw0m/A/wXz+86s/fs1nzZXwSB/bhA1s1KzVlOoGxF9MwtTniAFKMzQCRjs+ZjgybmNx8GGNVqfb2us1WZ6JiZE6z8mInqnmbpg0h3wyrCO20igKEC6ijaK8JdoprpTjNXrGOSdpaZm/SpH74uWL37188XyltnBYCstUyspGWVFvwjJqlWIZJRfL0LMjPzGIk6laLyvwq0jCGRl8CAdsOCDEfuqaWlVV6sr2tqLGOd6M4zpPKMsSlkb6CcrocVKL44s4BOR2xGTxP4LNErP5jpAaIlT/8sGrP32ckhLeFZS0FRgcwwG0MxQ1mOn9w1FpODg6bHVKo86QxknCk+S48WuERe/xvpKDZnnXpUIqj8rNXauY7XHPc8PZUsZIqDmSubljmZvRZL5ZHlrCy5EXq/bZj/MUxEzaCbzTmu1RaerEQcZoOMXhJIkvtuCnX//jr+8vnn++ePqbqw9+snj20eLDZyk7orf4gAyhCxtEbsaRDFlMVJYMBT8eMp+eKe9IlUQQ6eHiwLWcwNdUdZMdLEQTg65KzbE/cXcK1Y1ZZm4DeoaCv6P7nctAbFZtH6M0AQY606GwuskRLCbwvJy495+/+vXVL/989cmXr97/w+Lp7xc//eTli89fffGM76Srj7+8+vALkbmzyZ2NhR7sOOArsZsCo0R3WImW6dI37/2s5LhBCeBFKWRZ5pv3PpWM0YEyIJJYBvgWDyQ9hCVRWZnqlaShxGNI6cUqvNa3aFmqxhKiMLkzy0g6ebtMTQEGLTHGG91ROfRJyQXk9CbMJC2cKN9WT6jwMnmwrVTUiuDy0dApjHVfcv2e7Y51uxQx2Dk8I5LSul4hkWX97fUGzUYvEeGDGHgmHNsVeplAP3DXjwBkFF4SBbiA64zQptclS2LLLBx9SSkMiXuHScOk182aoihqmf2k0pWSwK3Q8zjCccSd9TCcAdiNLqhW89mtnYRv9zkUlRFv0u6203xoS1woaGk2JTA+y0qCxTNU16dXHByt7lPXJE3gpW76wB3iWpojpnMLlgHRZNPxPNfLzTgJJxLrA1CGLIISj8cyiHbJQbWZrFVEiLLcA7h+ANf/V+CaCm08gOsHcP0Arv/z4FpdDa7VdybbtbE5qVXLtaoyLm8o26Q8rm/Wy5Ma2aqrxqYyqVfzcHfl24Xd0eLlXL2vHMOt686dwuC60MxZ2fvOkvdaoa9Pmjcks5uPbuia1Xs4Tz2cp+77PKXG56kIj/v8kj9z9Q+JydQardawcwgZicIDGTq1Wkf9o15j1HnjTfq3KlKFS97kxAgti8IlajyIJEE0PCs4BQuWMZgRfk0PW3JZLlalp51EqZSnxQ5E2fOk2IkuVyB3PV8gDqtRKu2gTIbNtqNNL9ORhM+RhLVRHrJGKSiNXhs2o5VwdzUnGmmSn3NPzDnpO1duFcjNFb4Z5GaRKaPcHreiVG5Hy7g0IaGVkBMt4UqUjwFXkJdU4vDPJeZFVVyjc4lRBxJmQrxEo2XAhe7nmhLJsER5LWR0+wKJJAJaLlhpEkpVGJStJjIBSakf5ST6DA2lMzUSWQn9r91uib7/m6+30F0utND93VtJhaVtTSbHgJ6eJA9rIgIfcWKFNjDKrcdIKthSbIjXN/cbLJkKnyfxcFda9K709gfIb+UaFSWvGxLw0yY2gLWiL04j7T6cnu6qC2FRVLXrD2xT+LnYA43YLYkB+f0vjaGig2l4HoAH+liw8IPdnuWcdYvNXquran2zotfUbVKHEBpPtisb9e0KmWyOlbEOuJQbpViemqAnWvrapVgnKk09snryNOlQd04KWuMOZor0+Q54iu1VcZ6L23jX8vzgCa3v4otTjmPKMceETzR1myO/J5xwTAfMP8SjcNEZSo06Sj0Bfyru2j1rahV84aNE+SltBMJgNuMQr+iCwlF3n1wGGEkWAA6Mvw/Ig7+CK2KN7yo428T6ka1hOC5sDkXKB8CngXU37Y4JyPHu2uzdtWW/xgAYXryria7jWyenQdF1rdTrVbJFKuXKxDDKG9AoA94bl019UlcVZVI1Nyv0tawwDoXDIhcFO6HlxvJD3S6uhzL/ckb7N3z+hiRyMwAA</t>
         </r>
       </text>
     </comment>
@@ -40,9 +40,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +55,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,13 +94,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -387,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,154 +450,28 @@
         <v>37347</v>
       </c>
       <c r="M1" s="4">
-        <v>-8</v>
+        <v>-149</v>
       </c>
       <c r="N1" s="4">
-        <v>-10</v>
+        <v>-18024</v>
       </c>
       <c r="O1" s="4">
-        <v>-13</v>
+        <v>-143</v>
       </c>
       <c r="P1" s="4">
-        <v>-9</v>
+        <v>-145</v>
       </c>
       <c r="Q1" s="4">
-        <v>-5</v>
+        <v>-150</v>
       </c>
       <c r="R1" s="4">
-        <v>-14</v>
-      </c>
-      <c r="S1" s="4">
-        <v>-12</v>
-      </c>
-      <c r="T1" s="4">
-        <v>-5</v>
-      </c>
-      <c r="U1" s="4">
-        <v>-10</v>
-      </c>
-      <c r="V1" s="4">
-        <v>-5</v>
-      </c>
-      <c r="W1" s="4">
-        <v>-8</v>
-      </c>
-      <c r="X1" s="4">
-        <v>-9</v>
-      </c>
-      <c r="Y1" s="4">
-        <v>-10</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>-5</v>
-      </c>
-      <c r="AA1" s="4">
-        <v>-13</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>-9</v>
-      </c>
-      <c r="AC1" s="4">
-        <v>-9</v>
-      </c>
-      <c r="AD1" s="4">
-        <v>-9</v>
-      </c>
-      <c r="AE1" s="4">
-        <v>-5</v>
-      </c>
-      <c r="AF1" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AG1" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AH1" s="4">
-        <v>-5</v>
-      </c>
-      <c r="AI1" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AJ1" s="4">
-        <v>-16</v>
-      </c>
-      <c r="AK1" s="4">
-        <v>-5</v>
-      </c>
-      <c r="AL1" s="4">
-        <v>-125</v>
-      </c>
-      <c r="AM1" s="4">
-        <v>-143</v>
-      </c>
-      <c r="AN1" s="4">
-        <v>-144</v>
-      </c>
-      <c r="AO1" s="4">
-        <v>-142</v>
-      </c>
-      <c r="AP1" s="4">
-        <v>-133</v>
-      </c>
-      <c r="AQ1" s="4">
-        <v>-133</v>
-      </c>
-      <c r="AR1" s="4">
-        <v>-134</v>
-      </c>
-      <c r="AS1" s="4">
-        <v>-145</v>
-      </c>
-      <c r="AT1" s="4">
-        <v>-137</v>
-      </c>
-      <c r="AU1" s="4">
-        <v>-143</v>
-      </c>
-      <c r="AV1" s="4">
-        <v>-131</v>
-      </c>
-      <c r="AW1" s="4">
-        <v>-139</v>
-      </c>
-      <c r="AX1" s="4">
-        <v>-144</v>
-      </c>
-      <c r="AY1" s="4">
-        <v>-154</v>
-      </c>
-      <c r="AZ1" s="4">
-        <v>-158</v>
-      </c>
-      <c r="BA1" s="4">
-        <v>-151</v>
-      </c>
-      <c r="BB1" s="4">
-        <v>-153</v>
-      </c>
-      <c r="BC1" s="4">
-        <v>-149</v>
-      </c>
-      <c r="BD1" s="4">
-        <v>-18024</v>
-      </c>
-      <c r="BE1" s="4">
-        <v>-143</v>
-      </c>
-      <c r="BF1" s="4">
-        <v>-145</v>
-      </c>
-      <c r="BG1" s="4">
-        <v>-150</v>
-      </c>
-      <c r="BH1" s="4">
         <v>-153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Government Debt: Domestic: BB: Government Deposits [ACCUMULATE()]</t>
+          <t>Government Debt: Domestic: BB: Government Deposits</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -632,107 +517,59 @@
       <c r="L2" s="3">
         <v>37347</v>
       </c>
-      <c r="M2" s="4">
-        <v>-8</v>
-      </c>
-      <c r="N2" s="4">
-        <v>-18</v>
-      </c>
-      <c r="O2" s="4">
-        <v>-31</v>
-      </c>
-      <c r="P2" s="4">
-        <v>-40</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>-45</v>
-      </c>
-      <c r="R2" s="4">
-        <v>-59</v>
-      </c>
-      <c r="S2" s="4">
-        <v>-71</v>
-      </c>
-      <c r="T2" s="4">
-        <v>-76</v>
-      </c>
-      <c r="U2" s="4">
-        <v>-86</v>
-      </c>
-      <c r="V2" s="4">
-        <v>-91</v>
-      </c>
-      <c r="W2" s="4">
-        <v>-99</v>
-      </c>
-      <c r="X2" s="4">
-        <v>-108</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>-118</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>-123</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>-136</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>-145</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>-154</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>-163</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>-168</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>-182</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>-194</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>-199</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>-213</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>-229</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>-234</v>
-      </c>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>1</EndRow>
+          <EndCol>18</EndCol>
+          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
+          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
+          <SeriesId>310907701</SeriesId>
+          <Code>SR4825068</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>2</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>18</EndCol>
+          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
+          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
+          <SeriesId>310907701</SeriesId>
+          <Code>SR4825068</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CDBF9E8-DDB9-4E02-A2A4-BFB4509FB071}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_67.xlsx
+++ b/Testdata/TC_67.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>cjMAAB+LCAAAAAAAAAPtW1tv48YV/iuCn5IHeUjJF8mYZaCbXaGSZVhyd52XgCJHNmuKVHixrbcARZt20zw1CZo2bbp9aVF00zy0QJEt0v8SVN7tU/9Cz1xIDinKNr1O0aIOhCzn3GbmzJlzvpmdxW9dTu3SOfF8y3UeranrylqJOIZrWs7Jo7UwmJTVrbW3NNy5NIh9oHv6lAQgXAItx9+59K1Ha6dBMNtB6OLiYv2iuu56J6iiKCp60u8NjVMy1cuW4we6Y5C1WMu8WWtNwy1z2ieBbuqBzjUfrXWH3fUWsYw20Pq6o58Qb70Z+pZDfL/jBFZgEZ9qekQPSKvd/x6fmFZZ31pXMVqiJ5LN0LJNLpeS5HQhB92SkTUlWkWpKGWlVq5sjJTajrqxo9bWa8rW25FiLIh7uh8MiXduGYwwDPTpjKkrtcqGUlM31BpGuUJgK3GAhge2eUjOLZ+YLWLbfiGPILGADSOAWRdzpoKRpCsM3X0Ie54+Ox1ZgU2Kqu+6HjHAUXfqe59cDDzhv9GsB9zRqeUF87Y+L2zryCfeYEa9UUxVw23XCRo28YKjGSwqMWHNgaEFXkgwWsFMlNqWb8C35YTE1Ca67ctKKSZ+7Hpn/kw3yD5sWERtXDi2q5sQWYHlB5bhJwaWOPjAc2dgEnpvura5C2bFEHMYsemuAz6m/TZd9yxrPc3ELAhYOMCiTvUgEl+i4+GpezFw7PkwHPuGZ42J2W5G0rk8TLee0G6FfuBOYRQJCXOaROn30Rz+g92W5eA2Maypbh/Y4Ehfq4KhFAE3wsCdWEHLtcOpE3s0Q8WPYVIjchlPMm7jASywQ/3uOl0nYyWXl9Y4dC+i2FmmMz9I5IZvRHG2zMgKt4EWreAyhy0KneWuZUMxkJdDoqYDY3hKSJAbFZyDad7bpeVFa85pnxglFAzBCREOVMicylYZfhVlpCg77Ac9x2zcccxETq2Uq6okFzHxfjgdjGEXn7M5aSrwMiQMs7Cbtu6cAfWxFZzuN6LR53Awn/NK+WUehv06s/U5I8d+kWm46xh2aBKeBrrOhAUlHRtfxpVsvETqwcbWsO7MR/MZpF3f2gng49EaFOIdP/Cg1K9phhs6gTen+QIjIXqTjh+OHdaBbt9aZ+KRd0NAGPPd0DFarnn73kzunSPHCm4/Qjf0eBK8vQrzHk2Hod8mNLGwVH9rfaPInHyvkPjUIVPXsYzbexucTEdv3mEifrSrJA20IrbaZKKHNmCYACrQSVJcMmTc8M+yMjIJH3l2lBw0ihB9gIiGOV03oLZSGLRuuFNKQIDMHg8xkuUpQDBIxznp6c5JCCU43oBZepyaaPUYebrj0+nEFTeTpfKFcLShORLQ+C4fhMxjfJe7wMUoI4dHZDpzPd3ug2OsXbE+Ak5Ape7rwaloQda3iRE5GSWqsVZ6ZNHAbxJj+ZtPg+4MkU8yRCZE58LBqJTjEyKm0+xDANst3bbGHs8/UZnL48GKJeApylR0dgWBVLQIcCKByvRdMqcwNWkIOotZNWLwCKYpRxsebtQqm8oWQG/WxmzKey6cg5wpiJbaZBzslNrulFBItFNqNndKKfbM9a0AVpf7SiTuO1uR9fFulCHZ0PoQvylCmg+l+cSC/LskFzMSea0PgO3UnkuSfOY91wDBq4/+vvjqs8V7Xy2ePvvX336x+O0PFj/6IXw0m/A/wXz+86s/fs1nzZXwSB/bhA1s1KzVlOoGxF9MwtTniAFKMzQCRjs+ZjgybmNx8GGNVqfb2us1WZ6JiZE6z8mInqnmbpg0h3wyrCO20igKEC6ijaK8JdoprpTjNXrGOSdpaZm/SpH74uWL37188XyltnBYCstUyspGWVFvwjJqlWIZJRfL0LMjPzGIk6laLyvwq0jCGRl8CAdsOCDEfuqaWlVV6sr2tqLGOd6M4zpPKMsSlkb6CcrocVKL44s4BOR2xGTxP4LNErP5jpAaIlT/8sGrP32ckhLeFZS0FRgcwwG0MxQ1mOn9w1FpODg6bHVKo86QxknCk+S48WuERe/xvpKDZnnXpUIqj8rNXauY7XHPc8PZUsZIqDmSubljmZvRZL5ZHlrCy5EXq/bZj/MUxEzaCbzTmu1RaerEQcZoOMXhJIkvtuCnX//jr+8vnn++ePqbqw9+snj20eLDZyk7orf4gAyhCxtEbsaRDFlMVJYMBT8eMp+eKe9IlUQQ6eHiwLWcwNdUdZMdLEQTg65KzbE/cXcK1Y1ZZm4DeoaCv6P7nctAbFZtH6M0AQY606GwuskRLCbwvJy495+/+vXVL/989cmXr97/w+Lp7xc//eTli89fffGM76Srj7+8+vALkbmzyZ2NhR7sOOArsZsCo0R3WImW6dI37/2s5LhBCeBFKWRZ5pv3PpWM0YEyIJJYBvgWDyQ9hCVRWZnqlaShxGNI6cUqvNa3aFmqxhKiMLkzy0g6ebtMTQEGLTHGG91ROfRJyQXk9CbMJC2cKN9WT6jwMnmwrVTUiuDy0dApjHVfcv2e7Y51uxQx2Dk8I5LSul4hkWX97fUGzUYvEeGDGHgmHNsVeplAP3DXjwBkFF4SBbiA64zQptclS2LLLBx9SSkMiXuHScOk182aoihqmf2k0pWSwK3Q8zjCccSd9TCcAdiNLqhW89mtnYRv9zkUlRFv0u6203xoS1woaGk2JTA+y0qCxTNU16dXHByt7lPXJE3gpW76wB3iWpojpnMLlgHRZNPxPNfLzTgJJxLrA1CGLIISj8cyiHbJQbWZrFVEiLLcA7h+ANf/V+CaCm08gOsHcP0Arv/z4FpdDa7VdybbtbE5qVXLtaoyLm8o26Q8rm/Wy5Ma2aqrxqYyqVfzcHfl24Xd0eLlXL2vHMOt686dwuC60MxZ2fvOkvdaoa9Pmjcks5uPbuia1Xs4Tz2cp+77PKXG56kIj/v8kj9z9Q+JydQardawcwgZicIDGTq1Wkf9o15j1HnjTfq3KlKFS97kxAgti8IlajyIJEE0PCs4BQuWMZgRfk0PW3JZLlalp51EqZSnxQ5E2fOk2IkuVyB3PV8gDqtRKu2gTIbNtqNNL9ORhM+RhLVRHrJGKSiNXhs2o5VwdzUnGmmSn3NPzDnpO1duFcjNFb4Z5GaRKaPcHreiVG5Hy7g0IaGVkBMt4UqUjwFXkJdU4vDPJeZFVVyjc4lRBxJmQrxEo2XAhe7nmhLJsER5LWR0+wKJJAJaLlhpEkpVGJStJjIBSakf5ST6DA2lMzUSWQn9r91uib7/m6+30F0utND93VtJhaVtTSbHgJ6eJA9rIgIfcWKFNjDKrcdIKthSbIjXN/cbLJkKnyfxcFda9K709gfIb+UaFSWvGxLw0yY2gLWiL04j7T6cnu6qC2FRVLXrD2xT+LnYA43YLYkB+f0vjaGig2l4HoAH+liw8IPdnuWcdYvNXquran2zotfUbVKHEBpPtisb9e0KmWyOlbEOuJQbpViemqAnWvrapVgnKk09snryNOlQd04KWuMOZor0+Q54iu1VcZ6L23jX8vzgCa3v4otTjmPKMceETzR1myO/J5xwTAfMP8SjcNEZSo06Sj0Bfyru2j1rahV84aNE+SltBMJgNuMQr+iCwlF3n1wGGEkWAA6Mvw/Ig7+CK2KN7yo428T6ka1hOC5sDkXKB8CngXU37Y4JyPHu2uzdtWW/xgAYXryria7jWyenQdF1rdTrVbJFKuXKxDDKG9AoA94bl019UlcVZVI1Nyv0tawwDoXDIhcFO6HlxvJD3S6uhzL/ckb7N3z+hiRyMwAA</t>
+          <t>sjEAAB+LCAAAAAAAAAPtWltv48YV/iuEn5IHeUjJXsvGLAPd7AqRrIUld9cpioAixza7FKnyYltv+1Kk3TRPTYKmSZvuU4qim+ahBYpsm/6XoPKmT/0LPXMhObzIlrxOkABeGF7OuczlzJlzvjMe/MbFxFHOiB/Ynnt/TVtX1xTimp5luyf316LwuKLdW3tDx50LkzgPDN+YkBCEFdByg52LwL6/dhqG0x2Ezs/P189r655/gqqqqqFH/d7QPCUTo2K7QWi4JllLtKzrtdZ03LImfRIalhEaXPP+WnfYXW8R22wDrW+4xgnx15tRYLskCDpuaIc2CaimT4yQtNr9H/OF6dX1e+saRgV6KtmMbMfichlJThdyMCwZ2ROiV1WtXlHrlZo20rSdDXWnWlvXNrW3YsVEEPeMIBwS/8w2GWEYGpMpU1frNU3TNtRqDaNSIegrNYCOB451QM7sgFgt4jjBShZBYgMbZgirXs2YKkaSrujo5lPY843p6cgOHbLaNJrtkTJxxVzSTnS86/nEBPvdaEr75HzgC7OOpj3gjk5tP5y1jdnKfR0GxB9MqZFWU9Vx23PDhkP88HAKe00scAVg6KEfEYwWMFOlth2Y8G27EbH0Y8MJZKUMEz/0/MfB1DDJPpxjRPs4dx3PsMDhQjsIbTNIOyhw8APfm0KXMHrTc6xd6FZMsYSRdN11wcZ03KbnPc73nmVitq1sg2FTJ0YYixfoeHjqnQ9cZzaMxoHp22NitZuxdCkP0xMptFtREHoTmEVKwpwmUfp9NIN/cAjzHNwmpj0xnAcOGDLQ4fhmCbgRhd6xHbY8J5q4iUVzVPwQFjUiF8kikzYewAa71O6e23VzvZTyshoH3nnsO0U6s4NEbgRm7GdFRl64DbR4B4sctil0lbu2AzlC3g6JmnWM4SkhYalXcA6m4XCXZh29OaNjYpRSMDgneDhQdW17e6uiavAzUtUd9gMjJ2zccS32ATnmXkWr0ridysVMvB9NBmM4xWdsTboGvBwJwyqcpmO4j4H60A5P9xvx7Es4mK95oXyRh+G8Th1jxsiJXWQa7rqmE1mEh4Gue8ycks6Nb+NCNi6QenCwdWy4s9FsCtE4sHdC+Li/Bvl5Jwh9QABruulFbujPaLzASIhepxNEY5cNYDhL6xz75OcRAI/ZbuSaLc9afjSLW+fQtcPlZ+hFPg+Cy6sw69FwGAVtQgMLC/VL65urrCnwVxKfuGTiuba5vLXByHT21g0WEsSnStJAC3yrTY6NyAFoE0IGOkmTS46MG8HjvIxMwoe+EwcHnQLHAJCjaU3WTcitFB2tm96EEhAAtodDjGR5ChBM0nFPeoZ7EkEKTg5gnp6EJpo9Rr7hBnQ5ScbNRalyIRwfaI4EdH7KBxGzGD/lHnAxysnhEZlMPd9w+mAYe1fsj4ATkKn7RngqWhD1HWLGRkapaqKVnVk88evEWPzmy6AnQ8STHJEJ0bVwjCrF+JSI6TL74MBOy3Dssc/jT5zmyniwYyl4iiMVXd2KQCreBChUIDO9SWYUvaYNQWc+q8UM7sE05OjDg416dVO9V4esT9uYLXnPg/LInYCo0ibjcEdpexNCIdGO0mzuKBn21AvsEHaX20oE7hv3Iuvj3ThCsqn1wX8zhCwfUvOJDfG3IJcwUnm9D4Dt1JlJknzlPc8Ewcv3/z3/8pP5ky/nT5/975+/m3/8r/kvPoOPZhN+Cebz317+5Su+aq6ER8bYIWxio2a9rtY2wP8SEqY2RwxQWpEZMtrREcORSRuLeog1Wp1ua6/XZHEmIcbqPCYjWmrNvChtDvli2EBsp1HsIFxEH8VxS7QzXCnG67T0OSNZaZm/SJHb4uWLz16+eL5QWxgsBSuAUaoVdWMJLKPVKJZRS7EMLSl5xRAXrJu0YNVqknBOBh9A3Q0FQmKnrqXXNHVb3dpStSTGW4lflwnlWaKnkXGCcnqc1OL4InEBuR0zmf+P4LAkbH4ipIZw1b+/+81fP8hICesKSrYXmBzDAXQwFDdY1/sHI2U4ODxodZRRZ0j9JOVJcrzzK4TF6Mm5kp2meOoyLlVG5d1dqZgfcc/3omkhYqTUEsnS2FHk5jSZbYpTS3kl8mLXPvllmYJYSTuFd8kdgEzDGQ4nSXxxBD/66j//eGf+/NP50z9evvur+bP35+89y/QjRksKZHBdOCByM/FkiGIis+Qo+OGQ2fSx+raUSQSRFhcPPNsNA13TNllhIZoYdDXaHfsfdyeQ3VjPzGxAz1Hwj4ygcxGKw6rvY5QlwESnBiRWLy3BEgKPy6l5//v7P1x+/LfLD7/45p0/z5/+af7rD1+++PSbz5/xk3T5wReX730uInc+uLO50MKOAz6F3RSYCj1hCk3TytdPfqO4XqgAvFAiFmW+fvKR1BmdKAMiac8A35KJZKdQEJWVqZ4iTSWZQ0YvUeG5vkXTUi2REInJm9pmOshbFdoVYFCFMV7rjipRQBQPkNPrsJKscKq8rJ5Q4WnywZZa1aqCy2dDlzA2Asn0e443NhwlZrA6PCeS0bpaIZVl4+31Bs1GLxXhkxj4FpTtKr1MoB84ho80TXSDuBW7mkQBLmA8M3Lo1UlBrMhKepbCGRJ3EMcNi95I66rKivxszstI4Fbk+xztuOJaexhNAfjGl1WL+ewGT8K6+xyWyug3bXfbWT60JS4ktyybEhifRSjB4tGqG9DrDo5c96lp0ibwMrd+YA5xc83R05kNW4Jo4On4vueXRp+UE4v1ATRDREGpxRMZtqccYFvpXsWEOOJ9b4C28pNGq3XYP+w1Rp3XXv/p7eDuQqc/LBheapM7VP7doXIqtHGHyu9Q+R0q/+5RubYYlWtvG8QaG9XjrUp9u04qG5vVzcp4u75VGWukNiZq9Z66vVUG2KvfLl6PN6/kzn7hHJZOQzdyg6tcs2RnbztK3uq92dVB85pgdn3Nh67YvbtC7K4Qu+1CTCsWYvyvA7m/GUBgsnRAgsPOAUQkCg9k6CQhRPrnGCnDpW98EoSWh+wSNZlEGiAavh2eQg+2OZgSfr8PR7Iol6jS0ihVUsq0WPWUL0TFSfS4ArlpMYI4ykaZsINyETbfjg+9TEcSXEcS1kZlyBploDR6ZdiMFsLdxZx4pml8Li2vS8J3qdwikFsqfD3IzSNTRlket6JMbEdFXJqS0ELIiQq4EpVjwAXkgkri/qXEMq9KcnQpMR5AwkyIp2hUBFzodu43kQxL1FdCRssnSCQRUDFhZUkok2FQPpvIBCSFflQS6HM0lI3USEQl9EO+FhNjf5/vxdBNbsLQ7V14SUmmbR8fHwGSepS+zokJfMZpL7SBUWluRlLylnxDPOG5XWfJZfsyibtL1lUvWZcvJr+V+1eUPpFIgVCbOADcVn22Gmv3oZK6qS64xaqq3WDgWMLOq73ySMySdiC/LaY+9KpPi7kfNnwf4AV9h7jyW+D4kdCB4Z6sOBu+FKZIX9vA6HH2t/0gfETTqPjilKOEcsSh1yN9c5sDrEeccERhL/8QixS9o8w041Md8hfentOzJ/aKL3DU+OhnOwFbTqccSXVX8xRaUe6TC6jLpR4g645/Bgmev1JbpTfusFBCJPr0QWVgn5yGq05sawwRgIzVijkm1cqGpdYr24TUKpoGvw2zWlXVTfocU3QOQcUm5ysOguINS6sy/f9rQKJ6sjEAAA==</t>
         </r>
       </text>
     </comment>
@@ -40,10 +40,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,14 +54,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,15 +85,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -398,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,28 +439,154 @@
         <v>37347</v>
       </c>
       <c r="M1" s="4">
+        <v>-8</v>
+      </c>
+      <c r="N1" s="4">
+        <v>-10</v>
+      </c>
+      <c r="O1" s="4">
+        <v>-13</v>
+      </c>
+      <c r="P1" s="4">
+        <v>-9</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>-5</v>
+      </c>
+      <c r="R1" s="4">
+        <v>-14</v>
+      </c>
+      <c r="S1" s="4">
+        <v>-12</v>
+      </c>
+      <c r="T1" s="4">
+        <v>-5</v>
+      </c>
+      <c r="U1" s="4">
+        <v>-10</v>
+      </c>
+      <c r="V1" s="4">
+        <v>-5</v>
+      </c>
+      <c r="W1" s="4">
+        <v>-8</v>
+      </c>
+      <c r="X1" s="4">
+        <v>-9</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>-10</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>-5</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>-13</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>-9</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>-9</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>-9</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>-5</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>-14</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>-12</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>-5</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>-14</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>-16</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>-5</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>-125</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>-143</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>-144</v>
+      </c>
+      <c r="AO1" s="4">
+        <v>-142</v>
+      </c>
+      <c r="AP1" s="4">
+        <v>-133</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>-133</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>-134</v>
+      </c>
+      <c r="AS1" s="4">
+        <v>-145</v>
+      </c>
+      <c r="AT1" s="4">
+        <v>-137</v>
+      </c>
+      <c r="AU1" s="4">
+        <v>-143</v>
+      </c>
+      <c r="AV1" s="4">
+        <v>-131</v>
+      </c>
+      <c r="AW1" s="4">
+        <v>-139</v>
+      </c>
+      <c r="AX1" s="4">
+        <v>-144</v>
+      </c>
+      <c r="AY1" s="4">
+        <v>-154</v>
+      </c>
+      <c r="AZ1" s="4">
+        <v>-158</v>
+      </c>
+      <c r="BA1" s="4">
+        <v>-151</v>
+      </c>
+      <c r="BB1" s="4">
+        <v>-153</v>
+      </c>
+      <c r="BC1" s="4">
         <v>-149</v>
       </c>
-      <c r="N1" s="4">
+      <c r="BD1" s="4">
         <v>-18024</v>
       </c>
-      <c r="O1" s="4">
+      <c r="BE1" s="4">
         <v>-143</v>
       </c>
-      <c r="P1" s="4">
+      <c r="BF1" s="4">
         <v>-145</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="BG1" s="4">
         <v>-150</v>
       </c>
-      <c r="R1" s="4">
+      <c r="BH1" s="4">
         <v>-153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Government Debt: Domestic: BB: Government Deposits</t>
+          <t>Government Debt: Domestic: BB: Government Deposits [ACCUMULATE()]</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -517,59 +632,107 @@
       <c r="L2" s="3">
         <v>37347</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="M2" s="4">
+        <v>-8</v>
+      </c>
+      <c r="N2" s="4">
+        <v>-18</v>
+      </c>
+      <c r="O2" s="4">
+        <v>-31</v>
+      </c>
+      <c r="P2" s="4">
+        <v>-40</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>-45</v>
+      </c>
+      <c r="R2" s="4">
+        <v>-59</v>
+      </c>
+      <c r="S2" s="4">
+        <v>-71</v>
+      </c>
+      <c r="T2" s="4">
+        <v>-76</v>
+      </c>
+      <c r="U2" s="4">
+        <v>-86</v>
+      </c>
+      <c r="V2" s="4">
+        <v>-91</v>
+      </c>
+      <c r="W2" s="4">
+        <v>-99</v>
+      </c>
+      <c r="X2" s="4">
+        <v>-108</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>-118</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>-123</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>-136</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>-145</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>-154</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>-163</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>-168</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>-182</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>-194</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>-199</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>-213</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>-229</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>-234</v>
+      </c>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>1</EndRow>
-          <EndCol>18</EndCol>
-          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
-          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
-          <SeriesId>310907701</SeriesId>
-          <Code>SR4825068</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>2</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>2</EndRow>
-          <EndCol>18</EndCol>
-          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
-          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
-          <SeriesId>310907701</SeriesId>
-          <Code>SR4825068</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CDBF9E8-DDB9-4E02-A2A4-BFB4509FB071}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>